--- a/biology/Zoologie/Diplomatie_animalière/Diplomatie_animalière.xlsx
+++ b/biology/Zoologie/Diplomatie_animalière/Diplomatie_animalière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diplomatie_animali%C3%A8re</t>
+          <t>Diplomatie_animalière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diplomatie animalière désigne l'utilisation d'animaux vivants par les gouvernements dans leurs relations internationales. Attestée dès l'Antiquité, cette diplomatie prenait traditionnellement la forme d'animaux exotiques (lions, éléphants, girafes...) ou domestiques (chevaux, chiens, rapaces) offerts en cadeau entre chefs d'État. À compter du XXe siècle, elle a été davantage perçue comme une forme de soft power et a été intégrée par certains États dans leurs stratégies de diplomatie publique; l'exemple le plus célèbre est la diplomatie du panda pratiquée par la Chine. 
 </t>
